--- a/data/regression_name_list980.xlsx
+++ b/data/regression_name_list980.xlsx
@@ -455,7 +455,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -620,7 +620,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -675,7 +675,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1170,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2270,7 +2270,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2621,7 +2621,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2910,7 +2910,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3110,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3172,7 +3172,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3296,7 +3296,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3358,7 +3358,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3420,7 +3420,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3482,7 +3482,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3544,7 +3544,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3785,7 +3785,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3847,7 +3847,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4260,7 +4260,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4935,7 +4935,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5610,7 +5610,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
